--- a/Output/future_revpab.xlsx
+++ b/Output/future_revpab.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AF9"/>
+  <dimension ref="A1:AF12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -536,7 +536,7 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>Jun</t>
+          <t>Aug</t>
         </is>
       </c>
       <c r="B2" t="n">
@@ -561,373 +561,373 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>7.853740234375</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>8.87140869140625</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>11.526796875</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>23.8244970703125</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>29.21532958984375</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>15.1430810546875</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>10.426328125</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>6.2696533203125</v>
       </c>
       <c r="Q2" t="n">
-        <v>36.27611572265625</v>
+        <v>5.365075683593751</v>
       </c>
       <c r="R2" t="n">
-        <v>24.1461376953125</v>
+        <v>4.96929931640625</v>
       </c>
       <c r="S2" t="n">
-        <v>20.24894775390625</v>
+        <v>4.2556201171875</v>
       </c>
       <c r="T2" t="n">
-        <v>9.145454101562501</v>
+        <v>5.142919921875</v>
       </c>
       <c r="U2" t="n">
-        <v>8.464587402343749</v>
+        <v>2.0255908203125</v>
       </c>
       <c r="V2" t="n">
-        <v>13.6627734375</v>
+        <v>2.9773828125</v>
       </c>
       <c r="W2" t="n">
-        <v>8.01147216796875</v>
+        <v>5.30373046875</v>
       </c>
       <c r="X2" t="n">
-        <v>12.5821875</v>
+        <v>4.8036083984375</v>
       </c>
       <c r="Y2" t="n">
-        <v>15.582509765625</v>
+        <v>3.67880859375</v>
       </c>
       <c r="Z2" t="n">
-        <v>5.4364453125</v>
+        <v>9.74630126953125</v>
       </c>
       <c r="AA2" t="n">
-        <v>1.8151123046875</v>
+        <v>12.3238671875</v>
       </c>
       <c r="AB2" t="n">
-        <v>1.547958984375</v>
+        <v>5.17105224609375</v>
       </c>
       <c r="AC2" t="n">
-        <v>2.026513671875</v>
+        <v>2.173828125</v>
       </c>
       <c r="AD2" t="n">
-        <v>2.1897900390625</v>
+        <v>0.95654296875</v>
       </c>
       <c r="AE2" t="n">
-        <v>3.4566015625</v>
+        <v>1.4128662109375</v>
       </c>
       <c r="AF2" t="n">
-        <v>0</v>
+        <v>4.5983154296875</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>Jul</t>
+          <t>Sep</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>3.2414453125</v>
+        <v>8.694785156250001</v>
       </c>
       <c r="C3" t="n">
-        <v>3.71200439453125</v>
+        <v>14.22405029296875</v>
       </c>
       <c r="D3" t="n">
-        <v>4.674140625</v>
+        <v>8.594409179687501</v>
       </c>
       <c r="E3" t="n">
-        <v>6.8780029296875</v>
+        <v>1.32636474609375</v>
       </c>
       <c r="F3" t="n">
-        <v>10.064609375</v>
+        <v>1.27501708984375</v>
       </c>
       <c r="G3" t="n">
-        <v>25.05711181640625</v>
+        <v>1.08232421875</v>
       </c>
       <c r="H3" t="n">
-        <v>34.8079052734375</v>
+        <v>1.607080078125</v>
       </c>
       <c r="I3" t="n">
-        <v>39.52908203125</v>
+        <v>4.892268066406251</v>
       </c>
       <c r="J3" t="n">
-        <v>16.6536474609375</v>
+        <v>7.02943359375</v>
       </c>
       <c r="K3" t="n">
-        <v>1.82</v>
+        <v>5.257075195312501</v>
       </c>
       <c r="L3" t="n">
-        <v>1.02001953125</v>
+        <v>4.13421630859375</v>
       </c>
       <c r="M3" t="n">
-        <v>0.45467529296875</v>
+        <v>5.833947753906251</v>
       </c>
       <c r="N3" t="n">
-        <v>0.60439453125</v>
+        <v>7.4504345703125</v>
       </c>
       <c r="O3" t="n">
-        <v>2.88101806640625</v>
+        <v>9.0090087890625</v>
       </c>
       <c r="P3" t="n">
-        <v>2.86175537109375</v>
+        <v>21.4332421875</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.8417724609375</v>
+        <v>15.8147314453125</v>
       </c>
       <c r="R3" t="n">
-        <v>0.085693359375</v>
+        <v>3.54728515625</v>
       </c>
       <c r="S3" t="n">
-        <v>0.274169921875</v>
+        <v>4.507861328125</v>
       </c>
       <c r="T3" t="n">
-        <v>1.2909912109375</v>
+        <v>5.367509765625</v>
       </c>
       <c r="U3" t="n">
-        <v>0.8527148437500001</v>
+        <v>3.07078125</v>
       </c>
       <c r="V3" t="n">
-        <v>0.426123046875</v>
+        <v>4.550244140625</v>
       </c>
       <c r="W3" t="n">
-        <v>0.79310546875</v>
+        <v>5.023730468749999</v>
       </c>
       <c r="X3" t="n">
-        <v>0.63587890625</v>
+        <v>3.3130908203125</v>
       </c>
       <c r="Y3" t="n">
-        <v>0.138525390625</v>
+        <v>1.9299560546875</v>
       </c>
       <c r="Z3" t="n">
-        <v>0.22294921875</v>
+        <v>1.47852783203125</v>
       </c>
       <c r="AA3" t="n">
-        <v>1.8605615234375</v>
+        <v>1.48900146484375</v>
       </c>
       <c r="AB3" t="n">
-        <v>11.109443359375</v>
+        <v>1.5380859375</v>
       </c>
       <c r="AC3" t="n">
-        <v>16.87083984375</v>
+        <v>2.59954833984375</v>
       </c>
       <c r="AD3" t="n">
-        <v>17.159208984375</v>
+        <v>5.1651611328125</v>
       </c>
       <c r="AE3" t="n">
-        <v>5.77443603515625</v>
+        <v>7.800708007812499</v>
       </c>
       <c r="AF3" t="n">
-        <v>0.30306396484375</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Aug</t>
+          <t>Oct</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.280322265625</v>
+        <v>0.2548828125</v>
       </c>
       <c r="C4" t="n">
-        <v>0.1260498046875</v>
+        <v>0.12158203125</v>
       </c>
       <c r="D4" t="n">
-        <v>0.3155517578125</v>
+        <v>0.12158203125</v>
       </c>
       <c r="E4" t="n">
-        <v>0.42603515625</v>
+        <v>0.0400390625</v>
       </c>
       <c r="F4" t="n">
-        <v>0.42603515625</v>
+        <v>2.156494140625</v>
       </c>
       <c r="G4" t="n">
-        <v>0.010009765625</v>
+        <v>13.459716796875</v>
       </c>
       <c r="H4" t="n">
-        <v>0.085693359375</v>
+        <v>12.439453125</v>
       </c>
       <c r="I4" t="n">
-        <v>0.38876953125</v>
+        <v>5.57666015625</v>
       </c>
       <c r="J4" t="n">
-        <v>0.6541015625</v>
+        <v>0.087158203125</v>
       </c>
       <c r="K4" t="n">
-        <v>0.464501953125</v>
+        <v>0.087158203125</v>
       </c>
       <c r="L4" t="n">
-        <v>3.529169921875</v>
+        <v>0.087158203125</v>
       </c>
       <c r="M4" t="n">
-        <v>5.674248046874999</v>
+        <v>3.608642578125</v>
       </c>
       <c r="N4" t="n">
-        <v>3.0823291015625</v>
+        <v>14.088623046875</v>
       </c>
       <c r="O4" t="n">
-        <v>2.105673828125</v>
+        <v>14.088623046875</v>
       </c>
       <c r="P4" t="n">
-        <v>0.38724609375</v>
+        <v>8.13134765625</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.1819921875</v>
+        <v>0.63916015625</v>
       </c>
       <c r="R4" t="n">
-        <v>0.2197265625</v>
+        <v>0.93359375</v>
       </c>
       <c r="S4" t="n">
-        <v>0.05478515624999999</v>
+        <v>1.880859375</v>
       </c>
       <c r="T4" t="n">
-        <v>0.1095703125</v>
+        <v>9.7255859375</v>
       </c>
       <c r="U4" t="n">
-        <v>0.033203125</v>
+        <v>15.91357421875</v>
       </c>
       <c r="V4" t="n">
-        <v>0.07948974609375001</v>
+        <v>15.997314453125</v>
       </c>
       <c r="W4" t="n">
-        <v>0.233740234375</v>
+        <v>8.23388671875</v>
       </c>
       <c r="X4" t="n">
-        <v>0.228857421875</v>
+        <v>2.232421875</v>
       </c>
       <c r="Y4" t="n">
-        <v>0.4572900390625</v>
+        <v>0.090087890625</v>
       </c>
       <c r="Z4" t="n">
-        <v>0.55834228515625</v>
+        <v>1.7314453125</v>
       </c>
       <c r="AA4" t="n">
-        <v>1.7661767578125</v>
+        <v>3.621826171875</v>
       </c>
       <c r="AB4" t="n">
-        <v>1.34211181640625</v>
+        <v>4.779052734375</v>
       </c>
       <c r="AC4" t="n">
-        <v>0.6498779296874999</v>
+        <v>4.779052734375</v>
       </c>
       <c r="AD4" t="n">
-        <v>0.21800537109375</v>
+        <v>2.0625</v>
       </c>
       <c r="AE4" t="n">
-        <v>0.1638427734375</v>
+        <v>0.0400390625</v>
       </c>
       <c r="AF4" t="n">
-        <v>0.43330078125</v>
+        <v>0.16015625</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>Sep</t>
+          <t>Nov</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2.7175244140625</v>
+        <v>0.090087890625</v>
       </c>
       <c r="C5" t="n">
-        <v>4.3591552734375</v>
+        <v>0.13623046875</v>
       </c>
       <c r="D5" t="n">
-        <v>4.2374267578125</v>
+        <v>0.31640625</v>
       </c>
       <c r="E5" t="n">
-        <v>1.88046142578125</v>
+        <v>0.49560546875</v>
       </c>
       <c r="F5" t="n">
-        <v>1.694970703125</v>
+        <v>0.1142578125</v>
       </c>
       <c r="G5" t="n">
-        <v>1.2381591796875</v>
+        <v>0.0400390625</v>
       </c>
       <c r="H5" t="n">
-        <v>1.3489990234375</v>
+        <v>0.0400390625</v>
       </c>
       <c r="I5" t="n">
-        <v>2.04732666015625</v>
+        <v>0.037109375</v>
       </c>
       <c r="J5" t="n">
-        <v>2.54829833984375</v>
+        <v>0.04833984375</v>
       </c>
       <c r="K5" t="n">
-        <v>0.8851684570312501</v>
+        <v>0.090087890625</v>
       </c>
       <c r="L5" t="n">
-        <v>0.7941650390625</v>
+        <v>0.090087890625</v>
       </c>
       <c r="M5" t="n">
-        <v>0.62841796875</v>
+        <v>0.081298828125</v>
       </c>
       <c r="N5" t="n">
-        <v>0.9961523437499999</v>
+        <v>0.0341796875</v>
       </c>
       <c r="O5" t="n">
-        <v>0.66826416015625</v>
+        <v>0.008544921875</v>
       </c>
       <c r="P5" t="n">
-        <v>1.0243994140625</v>
+        <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>1.0243994140625</v>
+        <v>0.0368896484375</v>
       </c>
       <c r="R5" t="n">
-        <v>0.3555322265625</v>
+        <v>0.04453125</v>
       </c>
       <c r="S5" t="n">
-        <v>0.52566650390625</v>
+        <v>0.41455078125</v>
       </c>
       <c r="T5" t="n">
-        <v>0.9451318359374999</v>
+        <v>0.303515625</v>
       </c>
       <c r="U5" t="n">
-        <v>0.82891845703125</v>
+        <v>0.18212890625</v>
       </c>
       <c r="V5" t="n">
-        <v>1.87843017578125</v>
+        <v>0.29296875</v>
       </c>
       <c r="W5" t="n">
-        <v>1.943115234375</v>
+        <v>0.03466796875</v>
       </c>
       <c r="X5" t="n">
-        <v>0.77197265625</v>
+        <v>0.146064453125</v>
       </c>
       <c r="Y5" t="n">
-        <v>0.0375732421875</v>
+        <v>0.09424072265625001</v>
       </c>
       <c r="Z5" t="n">
-        <v>0.07917480468749999</v>
+        <v>0.168818359375</v>
       </c>
       <c r="AA5" t="n">
-        <v>0.07917480468749999</v>
+        <v>0.08340087890625</v>
       </c>
       <c r="AB5" t="n">
-        <v>0.035693359375</v>
+        <v>0.0371875</v>
       </c>
       <c r="AC5" t="n">
-        <v>0.47357177734375</v>
+        <v>0.009033203125</v>
       </c>
       <c r="AD5" t="n">
-        <v>1.0248046875</v>
+        <v>0.03466796875</v>
       </c>
       <c r="AE5" t="n">
-        <v>2.12060546875</v>
+        <v>0.036474609375</v>
       </c>
       <c r="AF5" t="n">
         <v>0</v>
@@ -936,135 +936,135 @@
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>Oct</t>
+          <t>Dec</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.0595703125</v>
+        <v>0.09991699218750001</v>
       </c>
       <c r="C6" t="n">
-        <v>0.05078125</v>
+        <v>0.0966796875</v>
       </c>
       <c r="D6" t="n">
-        <v>0.12158203125</v>
+        <v>0.009521484375</v>
       </c>
       <c r="E6" t="n">
-        <v>0.010009765625</v>
+        <v>0.009033203125</v>
       </c>
       <c r="F6" t="n">
-        <v>1.783203125</v>
+        <v>0.0166015625</v>
       </c>
       <c r="G6" t="n">
-        <v>13.546875</v>
+        <v>0.0166015625</v>
       </c>
       <c r="H6" t="n">
-        <v>13.546875</v>
+        <v>0.017431640625</v>
       </c>
       <c r="I6" t="n">
-        <v>6.906005859375</v>
+        <v>0.064453125</v>
       </c>
       <c r="J6" t="n">
-        <v>0.0400390625</v>
+        <v>0.064453125</v>
       </c>
       <c r="K6" t="n">
-        <v>0.010009765625</v>
+        <v>0.0380859375</v>
       </c>
       <c r="L6" t="n">
-        <v>0.010009765625</v>
+        <v>0.235400390625</v>
       </c>
       <c r="M6" t="n">
-        <v>1.193359375</v>
+        <v>0.235400390625</v>
       </c>
       <c r="N6" t="n">
-        <v>5.9609375</v>
+        <v>0.1510009765625</v>
       </c>
       <c r="O6" t="n">
-        <v>5.9609375</v>
+        <v>0.009521484375</v>
       </c>
       <c r="P6" t="n">
-        <v>2.758056640625</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.010009765625</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0.010009765625</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>0.250244140625</v>
+        <v>0.015771484375</v>
       </c>
       <c r="T6" t="n">
-        <v>6.80029296875</v>
+        <v>0.015771484375</v>
       </c>
       <c r="U6" t="n">
-        <v>10.15625</v>
+        <v>0.0095849609375</v>
       </c>
       <c r="V6" t="n">
-        <v>7.624267578125</v>
+        <v>0.0382080078125</v>
       </c>
       <c r="W6" t="n">
-        <v>3.468994140625</v>
+        <v>0.0421142578125</v>
       </c>
       <c r="X6" t="n">
-        <v>0.1318359375</v>
+        <v>0.011474609375</v>
       </c>
       <c r="Y6" t="n">
-        <v>0.010009765625</v>
+        <v>0.009521484375</v>
       </c>
       <c r="Z6" t="n">
-        <v>0.330810546875</v>
+        <v>0.0361328125</v>
       </c>
       <c r="AA6" t="n">
-        <v>0.57861328125</v>
+        <v>0.0361328125</v>
       </c>
       <c r="AB6" t="n">
-        <v>1.047607421875</v>
+        <v>0.009033203125</v>
       </c>
       <c r="AC6" t="n">
-        <v>1.047607421875</v>
+        <v>0</v>
       </c>
       <c r="AD6" t="n">
-        <v>0.53466796875</v>
+        <v>0.011474609375</v>
       </c>
       <c r="AE6" t="n">
-        <v>0.010009765625</v>
+        <v>0.011474609375</v>
       </c>
       <c r="AF6" t="n">
-        <v>0.010009765625</v>
+        <v>0.0369140625</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>Nov</t>
+          <t>Jan</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.010009765625</v>
+        <v>0.0359375</v>
       </c>
       <c r="C7" t="n">
-        <v>0.01513671875</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0.019775390625</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0.019775390625</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0.0126953125</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.010009765625</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0.010009765625</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0.010009765625</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0.01513671875</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1091,43 +1091,43 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0.2880859375</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0.009521484375</v>
+        <v>0.145751953125</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>0.145751953125</v>
       </c>
       <c r="V7" t="n">
-        <v>0.00830078125</v>
+        <v>0.116455078125</v>
       </c>
       <c r="W7" t="n">
-        <v>0.00830078125</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0.0365576171875</v>
+        <v>0.081298828125</v>
       </c>
       <c r="Y7" t="n">
-        <v>0.0398779296875</v>
+        <v>0</v>
       </c>
       <c r="Z7" t="n">
-        <v>0.0398779296875</v>
+        <v>0</v>
       </c>
       <c r="AA7" t="n">
-        <v>0.00956298828125</v>
+        <v>0</v>
       </c>
       <c r="AB7" t="n">
-        <v>0.009560546874999999</v>
+        <v>0</v>
       </c>
       <c r="AC7" t="n">
-        <v>0.009033203125</v>
+        <v>0</v>
       </c>
       <c r="AD7" t="n">
-        <v>0.009033203125</v>
+        <v>0</v>
       </c>
       <c r="AE7" t="n">
-        <v>0.009521484375</v>
+        <v>0</v>
       </c>
       <c r="AF7" t="n">
         <v>0</v>
@@ -1136,14 +1136,14 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Dec</t>
+          <t>Feb</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.011474609375</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0.0103759765625</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -1161,19 +1161,19 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>0.00830078125</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>0.009130859375</v>
       </c>
       <c r="K8" t="n">
-        <v>0.009521484375</v>
+        <v>0.009130859375</v>
       </c>
       <c r="L8" t="n">
-        <v>0.009033203125</v>
+        <v>0</v>
       </c>
       <c r="M8" t="n">
-        <v>0.009033203125</v>
+        <v>0</v>
       </c>
       <c r="N8" t="n">
         <v>0</v>
@@ -1182,7 +1182,7 @@
         <v>0</v>
       </c>
       <c r="P8" t="n">
-        <v>0</v>
+        <v>0.07275390625</v>
       </c>
       <c r="Q8" t="n">
         <v>0</v>
@@ -1200,95 +1200,95 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0.009521484375</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0.011474609375</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0.011474609375</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0.009521484375</v>
+        <v>0</v>
       </c>
       <c r="Z8" t="n">
-        <v>0.0361328125</v>
+        <v>0</v>
       </c>
       <c r="AA8" t="n">
-        <v>0.0361328125</v>
+        <v>0</v>
       </c>
       <c r="AB8" t="n">
-        <v>0.009033203125</v>
+        <v>0</v>
       </c>
       <c r="AC8" t="n">
         <v>0</v>
       </c>
       <c r="AD8" t="n">
-        <v>0.011474609375</v>
+        <v>0</v>
       </c>
       <c r="AE8" t="n">
-        <v>0.011474609375</v>
+        <v>0</v>
       </c>
       <c r="AF8" t="n">
-        <v>0.009521484375</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>Jan</t>
+          <t>Mar</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.009033203125</v>
+        <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>0.009033203125</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>0.009033203125</v>
+        <v>0.036376953125</v>
       </c>
       <c r="E9" t="n">
-        <v>0.009521484375</v>
+        <v>0.031494140625</v>
       </c>
       <c r="F9" t="n">
-        <v>0.011474609375</v>
+        <v>0.046142578125</v>
       </c>
       <c r="G9" t="n">
-        <v>0.011474609375</v>
+        <v>0.11865234375</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>0.151611328125</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>0.19189453125</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>0.19189453125</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>0.136962890625</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>0.1865234375</v>
       </c>
       <c r="M9" t="n">
-        <v>0</v>
+        <v>0.67138671875</v>
       </c>
       <c r="N9" t="n">
-        <v>0</v>
+        <v>0.67138671875</v>
       </c>
       <c r="O9" t="n">
-        <v>0</v>
+        <v>0.872802734375</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>1.13525390625</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>0.07958984375</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>0.011962890625</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="X9" t="n">
-        <v>0.081298828125</v>
+        <v>0</v>
       </c>
       <c r="Y9" t="n">
         <v>0</v>
@@ -1327,9 +1327,309 @@
         <v>0</v>
       </c>
       <c r="AE9" t="n">
-        <v>0</v>
+        <v>0.0126953125</v>
       </c>
       <c r="AF9" t="n">
+        <v>0.010009765625</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Apr</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>0.24169921875</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.24169921875</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0.34716796875</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0.0510009765625</v>
+      </c>
+      <c r="F10" t="n">
+        <v>5.411486816406249</v>
+      </c>
+      <c r="G10" t="n">
+        <v>7.273251953125</v>
+      </c>
+      <c r="H10" t="n">
+        <v>4.535</v>
+      </c>
+      <c r="I10" t="n">
+        <v>3.85234375</v>
+      </c>
+      <c r="J10" t="n">
+        <v>2.5365234375</v>
+      </c>
+      <c r="K10" t="n">
+        <v>0.2255859375</v>
+      </c>
+      <c r="L10" t="n">
+        <v>0</v>
+      </c>
+      <c r="M10" t="n">
+        <v>0</v>
+      </c>
+      <c r="N10" t="n">
+        <v>0</v>
+      </c>
+      <c r="O10" t="n">
+        <v>0</v>
+      </c>
+      <c r="P10" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>0</v>
+      </c>
+      <c r="R10" t="n">
+        <v>0</v>
+      </c>
+      <c r="S10" t="n">
+        <v>0</v>
+      </c>
+      <c r="T10" t="n">
+        <v>0</v>
+      </c>
+      <c r="U10" t="n">
+        <v>0</v>
+      </c>
+      <c r="V10" t="n">
+        <v>0</v>
+      </c>
+      <c r="W10" t="n">
+        <v>0</v>
+      </c>
+      <c r="X10" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y10" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF10" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="inlineStr">
+        <is>
+          <t>Jun</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>0</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0</v>
+      </c>
+      <c r="G11" t="n">
+        <v>0</v>
+      </c>
+      <c r="H11" t="n">
+        <v>0</v>
+      </c>
+      <c r="I11" t="n">
+        <v>0</v>
+      </c>
+      <c r="J11" t="n">
+        <v>0</v>
+      </c>
+      <c r="K11" t="n">
+        <v>0</v>
+      </c>
+      <c r="L11" t="n">
+        <v>0</v>
+      </c>
+      <c r="M11" t="n">
+        <v>0.010498046875</v>
+      </c>
+      <c r="N11" t="n">
+        <v>0</v>
+      </c>
+      <c r="O11" t="n">
+        <v>0</v>
+      </c>
+      <c r="P11" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>0</v>
+      </c>
+      <c r="R11" t="n">
+        <v>0</v>
+      </c>
+      <c r="S11" t="n">
+        <v>0</v>
+      </c>
+      <c r="T11" t="n">
+        <v>0</v>
+      </c>
+      <c r="U11" t="n">
+        <v>0</v>
+      </c>
+      <c r="V11" t="n">
+        <v>0</v>
+      </c>
+      <c r="W11" t="n">
+        <v>0</v>
+      </c>
+      <c r="X11" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y11" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>Jul</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>0</v>
+      </c>
+      <c r="C12" t="n">
+        <v>0</v>
+      </c>
+      <c r="D12" t="n">
+        <v>0</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0</v>
+      </c>
+      <c r="F12" t="n">
+        <v>0</v>
+      </c>
+      <c r="G12" t="n">
+        <v>0</v>
+      </c>
+      <c r="H12" t="n">
+        <v>0</v>
+      </c>
+      <c r="I12" t="n">
+        <v>0</v>
+      </c>
+      <c r="J12" t="n">
+        <v>0</v>
+      </c>
+      <c r="K12" t="n">
+        <v>0</v>
+      </c>
+      <c r="L12" t="n">
+        <v>0</v>
+      </c>
+      <c r="M12" t="n">
+        <v>0</v>
+      </c>
+      <c r="N12" t="n">
+        <v>0</v>
+      </c>
+      <c r="O12" t="n">
+        <v>0</v>
+      </c>
+      <c r="P12" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>0</v>
+      </c>
+      <c r="R12" t="n">
+        <v>0</v>
+      </c>
+      <c r="S12" t="n">
+        <v>0</v>
+      </c>
+      <c r="T12" t="n">
+        <v>0</v>
+      </c>
+      <c r="U12" t="n">
+        <v>0</v>
+      </c>
+      <c r="V12" t="n">
+        <v>0</v>
+      </c>
+      <c r="W12" t="n">
+        <v>0</v>
+      </c>
+      <c r="X12" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y12" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z12" t="n">
+        <v>0.08740234375</v>
+      </c>
+      <c r="AA12" t="n">
+        <v>0.10693359375</v>
+      </c>
+      <c r="AB12" t="n">
+        <v>0.10693359375</v>
+      </c>
+      <c r="AC12" t="n">
+        <v>0.08740234375</v>
+      </c>
+      <c r="AD12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF12" t="n">
         <v>0</v>
       </c>
     </row>

--- a/Output/future_revpab.xlsx
+++ b/Output/future_revpab.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AF12"/>
+  <dimension ref="A1:AH11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -434,116 +434,119 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="inlineStr">
+      <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>month</t>
+          <t>Year</t>
         </is>
       </c>
-      <c r="B1" s="1" t="n">
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Month</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="n">
+      <c r="E1" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="n">
+      <c r="F1" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="n">
+      <c r="G1" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="n">
+      <c r="H1" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="n">
+      <c r="I1" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="n">
+      <c r="J1" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="n">
+      <c r="K1" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="n">
+      <c r="L1" s="1" t="n">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="n">
+      <c r="M1" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="L1" s="1" t="n">
+      <c r="N1" s="1" t="n">
         <v>11</v>
       </c>
-      <c r="M1" s="1" t="n">
+      <c r="O1" s="1" t="n">
         <v>12</v>
       </c>
-      <c r="N1" s="1" t="n">
+      <c r="P1" s="1" t="n">
         <v>13</v>
       </c>
-      <c r="O1" s="1" t="n">
+      <c r="Q1" s="1" t="n">
         <v>14</v>
       </c>
-      <c r="P1" s="1" t="n">
+      <c r="R1" s="1" t="n">
         <v>15</v>
       </c>
-      <c r="Q1" s="1" t="n">
+      <c r="S1" s="1" t="n">
         <v>16</v>
       </c>
-      <c r="R1" s="1" t="n">
+      <c r="T1" s="1" t="n">
         <v>17</v>
       </c>
-      <c r="S1" s="1" t="n">
+      <c r="U1" s="1" t="n">
         <v>18</v>
       </c>
-      <c r="T1" s="1" t="n">
+      <c r="V1" s="1" t="n">
         <v>19</v>
       </c>
-      <c r="U1" s="1" t="n">
+      <c r="W1" s="1" t="n">
         <v>20</v>
       </c>
-      <c r="V1" s="1" t="n">
+      <c r="X1" s="1" t="n">
         <v>21</v>
       </c>
-      <c r="W1" s="1" t="n">
+      <c r="Y1" s="1" t="n">
         <v>22</v>
       </c>
-      <c r="X1" s="1" t="n">
+      <c r="Z1" s="1" t="n">
         <v>23</v>
       </c>
-      <c r="Y1" s="1" t="n">
+      <c r="AA1" s="1" t="n">
         <v>24</v>
       </c>
-      <c r="Z1" s="1" t="n">
+      <c r="AB1" s="1" t="n">
         <v>25</v>
       </c>
-      <c r="AA1" s="1" t="n">
+      <c r="AC1" s="1" t="n">
         <v>26</v>
       </c>
-      <c r="AB1" s="1" t="n">
+      <c r="AD1" s="1" t="n">
         <v>27</v>
       </c>
-      <c r="AC1" s="1" t="n">
+      <c r="AE1" s="1" t="n">
         <v>28</v>
       </c>
-      <c r="AD1" s="1" t="n">
+      <c r="AF1" s="1" t="n">
         <v>29</v>
       </c>
-      <c r="AE1" s="1" t="n">
+      <c r="AG1" s="1" t="n">
         <v>30</v>
       </c>
-      <c r="AF1" s="1" t="n">
+      <c r="AH1" s="1" t="n">
         <v>31</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="inlineStr">
-        <is>
-          <t>Aug</t>
-        </is>
+      <c r="A2" s="1" t="n">
+        <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>2024</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -561,507 +564,527 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>7.853740234375</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>8.87140869140625</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>11.526796875</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>23.8244970703125</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>29.21532958984375</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>15.1430810546875</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>10.426328125</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>6.2696533203125</v>
+        <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>5.365075683593751</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>4.96929931640625</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>4.2556201171875</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>5.142919921875</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>2.0255908203125</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>2.9773828125</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>5.30373046875</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>4.8036083984375</v>
+        <v>6.110625</v>
       </c>
       <c r="Y2" t="n">
-        <v>3.67880859375</v>
+        <v>12.65658333333333</v>
       </c>
       <c r="Z2" t="n">
-        <v>9.74630126953125</v>
+        <v>10.21014583333333</v>
       </c>
       <c r="AA2" t="n">
-        <v>12.3238671875</v>
+        <v>18.96571614583333</v>
       </c>
       <c r="AB2" t="n">
-        <v>5.17105224609375</v>
+        <v>15.744765625</v>
       </c>
       <c r="AC2" t="n">
-        <v>2.173828125</v>
+        <v>6.068815104166666</v>
       </c>
       <c r="AD2" t="n">
-        <v>0.95654296875</v>
+        <v>6.559380208333334</v>
       </c>
       <c r="AE2" t="n">
-        <v>1.4128662109375</v>
+        <v>5.490145833333333</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.5983154296875</v>
+        <v>8.754890625000002</v>
+      </c>
+      <c r="AG2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH2" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="1" t="inlineStr">
-        <is>
-          <t>Sep</t>
-        </is>
+      <c r="A3" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>8.694785156250001</v>
+        <v>2024</v>
       </c>
       <c r="C3" t="n">
-        <v>14.22405029296875</v>
+        <v>3</v>
       </c>
       <c r="D3" t="n">
-        <v>8.594409179687501</v>
+        <v>26.07199739583333</v>
       </c>
       <c r="E3" t="n">
-        <v>1.32636474609375</v>
+        <v>31.61533333333333</v>
       </c>
       <c r="F3" t="n">
-        <v>1.27501708984375</v>
+        <v>10.83926302083334</v>
       </c>
       <c r="G3" t="n">
-        <v>1.08232421875</v>
+        <v>6.994750000000001</v>
       </c>
       <c r="H3" t="n">
-        <v>1.607080078125</v>
+        <v>5.845312499999999</v>
       </c>
       <c r="I3" t="n">
-        <v>4.892268066406251</v>
+        <v>13.75234375</v>
       </c>
       <c r="J3" t="n">
-        <v>7.02943359375</v>
+        <v>38.64895833333333</v>
       </c>
       <c r="K3" t="n">
-        <v>5.257075195312501</v>
+        <v>70.9171875</v>
       </c>
       <c r="L3" t="n">
-        <v>4.13421630859375</v>
+        <v>76.0546875</v>
       </c>
       <c r="M3" t="n">
-        <v>5.833947753906251</v>
+        <v>54.9984375</v>
       </c>
       <c r="N3" t="n">
-        <v>7.4504345703125</v>
+        <v>41.99270833333333</v>
       </c>
       <c r="O3" t="n">
-        <v>9.0090087890625</v>
+        <v>41.18515625</v>
       </c>
       <c r="P3" t="n">
-        <v>21.4332421875</v>
+        <v>39.67447916666667</v>
       </c>
       <c r="Q3" t="n">
-        <v>15.8147314453125</v>
+        <v>53.12161458333333</v>
       </c>
       <c r="R3" t="n">
-        <v>3.54728515625</v>
+        <v>57.21250000000001</v>
       </c>
       <c r="S3" t="n">
-        <v>4.507861328125</v>
+        <v>26.575</v>
       </c>
       <c r="T3" t="n">
-        <v>5.367509765625</v>
+        <v>3.510677083333333</v>
       </c>
       <c r="U3" t="n">
-        <v>3.07078125</v>
+        <v>1.476953125</v>
       </c>
       <c r="V3" t="n">
-        <v>4.550244140625</v>
+        <v>2.3946875</v>
       </c>
       <c r="W3" t="n">
-        <v>5.023730468749999</v>
+        <v>5.57890625</v>
       </c>
       <c r="X3" t="n">
-        <v>3.3130908203125</v>
+        <v>4.017083333333334</v>
       </c>
       <c r="Y3" t="n">
-        <v>1.9299560546875</v>
+        <v>6.179986979166666</v>
       </c>
       <c r="Z3" t="n">
-        <v>1.47852783203125</v>
+        <v>2.180182291666667</v>
       </c>
       <c r="AA3" t="n">
-        <v>1.48900146484375</v>
+        <v>1.86678125</v>
       </c>
       <c r="AB3" t="n">
-        <v>1.5380859375</v>
+        <v>3.872312499999999</v>
       </c>
       <c r="AC3" t="n">
-        <v>2.59954833984375</v>
+        <v>1.47525</v>
       </c>
       <c r="AD3" t="n">
-        <v>5.1651611328125</v>
+        <v>2.2795</v>
       </c>
       <c r="AE3" t="n">
-        <v>7.800708007812499</v>
+        <v>3.671114583333333</v>
       </c>
       <c r="AF3" t="n">
-        <v>0</v>
+        <v>6.39975</v>
+      </c>
+      <c r="AG3" t="n">
+        <v>8.070901041666668</v>
+      </c>
+      <c r="AH3" t="n">
+        <v>1.609125</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="1" t="inlineStr">
-        <is>
-          <t>Oct</t>
-        </is>
+      <c r="A4" s="1" t="n">
+        <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>0.2548828125</v>
+        <v>2024</v>
       </c>
       <c r="C4" t="n">
-        <v>0.12158203125</v>
+        <v>4</v>
       </c>
       <c r="D4" t="n">
-        <v>0.12158203125</v>
+        <v>7.700260416666667</v>
       </c>
       <c r="E4" t="n">
-        <v>0.0400390625</v>
+        <v>12.99694010416667</v>
       </c>
       <c r="F4" t="n">
-        <v>2.156494140625</v>
+        <v>20.55484375</v>
       </c>
       <c r="G4" t="n">
-        <v>13.459716796875</v>
+        <v>31.026953125</v>
       </c>
       <c r="H4" t="n">
-        <v>12.439453125</v>
+        <v>40.00934895833333</v>
       </c>
       <c r="I4" t="n">
-        <v>5.57666015625</v>
+        <v>47.0369296875</v>
       </c>
       <c r="J4" t="n">
-        <v>0.087158203125</v>
+        <v>37.64259114583334</v>
       </c>
       <c r="K4" t="n">
-        <v>0.087158203125</v>
+        <v>34.13723958333333</v>
       </c>
       <c r="L4" t="n">
-        <v>0.087158203125</v>
+        <v>35.92317708333334</v>
       </c>
       <c r="M4" t="n">
-        <v>3.608642578125</v>
+        <v>18.6723671875</v>
       </c>
       <c r="N4" t="n">
-        <v>14.088623046875</v>
+        <v>8.356562500000001</v>
       </c>
       <c r="O4" t="n">
-        <v>14.088623046875</v>
+        <v>9.985026041666668</v>
       </c>
       <c r="P4" t="n">
-        <v>8.13134765625</v>
+        <v>8.464179687500001</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.63916015625</v>
+        <v>3.036041666666667</v>
       </c>
       <c r="R4" t="n">
-        <v>0.93359375</v>
+        <v>1.078645833333333</v>
       </c>
       <c r="S4" t="n">
-        <v>1.880859375</v>
+        <v>1.336901041666666</v>
       </c>
       <c r="T4" t="n">
-        <v>9.7255859375</v>
+        <v>1.7313828125</v>
       </c>
       <c r="U4" t="n">
-        <v>15.91357421875</v>
+        <v>1.855705729166666</v>
       </c>
       <c r="V4" t="n">
-        <v>15.997314453125</v>
+        <v>2.229361979166666</v>
       </c>
       <c r="W4" t="n">
-        <v>8.23388671875</v>
+        <v>0.6274114583333333</v>
       </c>
       <c r="X4" t="n">
-        <v>2.232421875</v>
+        <v>0.5425546875</v>
       </c>
       <c r="Y4" t="n">
-        <v>0.090087890625</v>
+        <v>0.39409375</v>
       </c>
       <c r="Z4" t="n">
-        <v>1.7314453125</v>
+        <v>0.6206484375000001</v>
       </c>
       <c r="AA4" t="n">
-        <v>3.621826171875</v>
+        <v>0.6206484375000001</v>
       </c>
       <c r="AB4" t="n">
-        <v>4.779052734375</v>
+        <v>1.016549479166667</v>
       </c>
       <c r="AC4" t="n">
-        <v>4.779052734375</v>
+        <v>7.299153645833333</v>
       </c>
       <c r="AD4" t="n">
-        <v>2.0625</v>
+        <v>6.93703125</v>
       </c>
       <c r="AE4" t="n">
-        <v>0.0400390625</v>
+        <v>5.690351562499999</v>
       </c>
       <c r="AF4" t="n">
-        <v>0.16015625</v>
+        <v>0.8963541666666667</v>
+      </c>
+      <c r="AG4" t="n">
+        <v>0.8133333333333332</v>
+      </c>
+      <c r="AH4" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="1" t="inlineStr">
-        <is>
-          <t>Nov</t>
-        </is>
+      <c r="A5" s="1" t="n">
+        <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>0.090087890625</v>
+        <v>2024</v>
       </c>
       <c r="C5" t="n">
-        <v>0.13623046875</v>
+        <v>5</v>
       </c>
       <c r="D5" t="n">
-        <v>0.31640625</v>
+        <v>0.776015625</v>
       </c>
       <c r="E5" t="n">
-        <v>0.49560546875</v>
+        <v>0.4231770833333333</v>
       </c>
       <c r="F5" t="n">
-        <v>0.1142578125</v>
+        <v>1.952864583333333</v>
       </c>
       <c r="G5" t="n">
-        <v>0.0400390625</v>
+        <v>1.49296875</v>
       </c>
       <c r="H5" t="n">
-        <v>0.0400390625</v>
+        <v>1.1787890625</v>
       </c>
       <c r="I5" t="n">
-        <v>0.037109375</v>
+        <v>0.3527994791666667</v>
       </c>
       <c r="J5" t="n">
-        <v>0.04833984375</v>
+        <v>0.423359375</v>
       </c>
       <c r="K5" t="n">
-        <v>0.090087890625</v>
+        <v>0.423359375</v>
       </c>
       <c r="L5" t="n">
-        <v>0.090087890625</v>
+        <v>0.463984375</v>
       </c>
       <c r="M5" t="n">
-        <v>0.081298828125</v>
+        <v>4.5216796875</v>
       </c>
       <c r="N5" t="n">
-        <v>0.0341796875</v>
+        <v>4.074583333333333</v>
       </c>
       <c r="O5" t="n">
-        <v>0.008544921875</v>
+        <v>1.710416666666666</v>
       </c>
       <c r="P5" t="n">
-        <v>0</v>
+        <v>0.040625</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.0368896484375</v>
+        <v>0.040625</v>
       </c>
       <c r="R5" t="n">
-        <v>0.04453125</v>
+        <v>0.04375</v>
       </c>
       <c r="S5" t="n">
-        <v>0.41455078125</v>
+        <v>0.2920833333333333</v>
       </c>
       <c r="T5" t="n">
-        <v>0.303515625</v>
+        <v>1.276791666666667</v>
       </c>
       <c r="U5" t="n">
-        <v>0.18212890625</v>
+        <v>1.565296875</v>
       </c>
       <c r="V5" t="n">
-        <v>0.29296875</v>
+        <v>0.552359375</v>
       </c>
       <c r="W5" t="n">
-        <v>0.03466796875</v>
+        <v>0.01015625</v>
       </c>
       <c r="X5" t="n">
-        <v>0.146064453125</v>
+        <v>0.09140625000000001</v>
       </c>
       <c r="Y5" t="n">
-        <v>0.09424072265625001</v>
+        <v>0</v>
       </c>
       <c r="Z5" t="n">
-        <v>0.168818359375</v>
+        <v>0.01067708333333333</v>
       </c>
       <c r="AA5" t="n">
-        <v>0.08340087890625</v>
+        <v>0.5317968750000001</v>
       </c>
       <c r="AB5" t="n">
-        <v>0.0371875</v>
+        <v>0.14078125</v>
       </c>
       <c r="AC5" t="n">
-        <v>0.009033203125</v>
+        <v>0.20984375</v>
       </c>
       <c r="AD5" t="n">
-        <v>0.03466796875</v>
+        <v>0.2904296875</v>
       </c>
       <c r="AE5" t="n">
-        <v>0.036474609375</v>
+        <v>0.1481770833333333</v>
       </c>
       <c r="AF5" t="n">
-        <v>0</v>
+        <v>0.2360026041666667</v>
+      </c>
+      <c r="AG5" t="n">
+        <v>0.4935546875</v>
+      </c>
+      <c r="AH5" t="n">
+        <v>0.3544270833333333</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="inlineStr">
-        <is>
-          <t>Dec</t>
-        </is>
+      <c r="A6" s="1" t="n">
+        <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>0.09991699218750001</v>
+        <v>2024</v>
       </c>
       <c r="C6" t="n">
-        <v>0.0966796875</v>
+        <v>6</v>
       </c>
       <c r="D6" t="n">
-        <v>0.009521484375</v>
+        <v>0.3544270833333333</v>
       </c>
       <c r="E6" t="n">
-        <v>0.009033203125</v>
+        <v>0.2079270833333333</v>
       </c>
       <c r="F6" t="n">
-        <v>0.0166015625</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.0166015625</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>0.017431640625</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0.064453125</v>
+        <v>0.010625</v>
       </c>
       <c r="J6" t="n">
-        <v>0.064453125</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>0.0380859375</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>0.235400390625</v>
+        <v>0.01067708333333333</v>
       </c>
       <c r="M6" t="n">
-        <v>0.235400390625</v>
+        <v>0.01015625</v>
       </c>
       <c r="N6" t="n">
-        <v>0.1510009765625</v>
+        <v>0.01015625</v>
       </c>
       <c r="O6" t="n">
-        <v>0.009521484375</v>
+        <v>0.09453125000000001</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>0.01067708333333333</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>0.05729166666666666</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>0.05729166666666666</v>
       </c>
       <c r="S6" t="n">
-        <v>0.015771484375</v>
+        <v>0.01145833333333333</v>
       </c>
       <c r="T6" t="n">
-        <v>0.015771484375</v>
+        <v>0.04375</v>
       </c>
       <c r="U6" t="n">
-        <v>0.0095849609375</v>
+        <v>0.040625</v>
       </c>
       <c r="V6" t="n">
-        <v>0.0382080078125</v>
+        <v>0.01015625</v>
       </c>
       <c r="W6" t="n">
-        <v>0.0421142578125</v>
+        <v>0</v>
       </c>
       <c r="X6" t="n">
-        <v>0.011474609375</v>
+        <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>0.009521484375</v>
+        <v>0</v>
       </c>
       <c r="Z6" t="n">
-        <v>0.0361328125</v>
+        <v>0</v>
       </c>
       <c r="AA6" t="n">
-        <v>0.0361328125</v>
+        <v>0</v>
       </c>
       <c r="AB6" t="n">
-        <v>0.009033203125</v>
+        <v>0</v>
       </c>
       <c r="AC6" t="n">
         <v>0</v>
       </c>
       <c r="AD6" t="n">
-        <v>0.011474609375</v>
+        <v>0</v>
       </c>
       <c r="AE6" t="n">
-        <v>0.011474609375</v>
+        <v>0.1083333333333333</v>
       </c>
       <c r="AF6" t="n">
-        <v>0.0369140625</v>
+        <v>0.1083333333333333</v>
+      </c>
+      <c r="AG6" t="n">
+        <v>0.1885416666666667</v>
+      </c>
+      <c r="AH6" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="1" t="inlineStr">
-        <is>
-          <t>Jan</t>
-        </is>
+      <c r="A7" s="1" t="n">
+        <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>0.0359375</v>
+        <v>2024</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>0.299453125</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>0.299453125</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>0.04002604166666666</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>0.04239583333333333</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>0.049453125</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>0.01040364583333333</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1085,7 +1108,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>0.01067708333333333</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -1094,113 +1117,117 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0.145751953125</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0.145751953125</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0.116455078125</v>
+        <v>0.105</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>0.105</v>
       </c>
       <c r="X7" t="n">
-        <v>0.081298828125</v>
+        <v>0.09218750000000001</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
       </c>
       <c r="Z7" t="n">
-        <v>0</v>
+        <v>0.09296875</v>
       </c>
       <c r="AA7" t="n">
-        <v>0</v>
+        <v>0.4524479166666667</v>
       </c>
       <c r="AB7" t="n">
-        <v>0</v>
+        <v>2.8068828125</v>
       </c>
       <c r="AC7" t="n">
-        <v>0</v>
+        <v>2.5012109375</v>
       </c>
       <c r="AD7" t="n">
-        <v>0</v>
+        <v>2.5012109375</v>
       </c>
       <c r="AE7" t="n">
-        <v>0</v>
+        <v>1.085625</v>
       </c>
       <c r="AF7" t="n">
         <v>0</v>
+      </c>
+      <c r="AG7" t="n">
+        <v>0.01015625</v>
+      </c>
+      <c r="AH7" t="n">
+        <v>0.03890625</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>Feb</t>
-        </is>
+      <c r="A8" s="1" t="n">
+        <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>2024</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>0.04083333333333333</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>0.01217447916666667</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>0.1965625</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>0.1611458333333333</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0.00830078125</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>0.009130859375</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>0.009130859375</v>
+        <v>0</v>
       </c>
       <c r="L8" t="n">
-        <v>0</v>
+        <v>0.01354166666666667</v>
       </c>
       <c r="M8" t="n">
-        <v>0</v>
+        <v>0.01354166666666667</v>
       </c>
       <c r="N8" t="n">
-        <v>0</v>
+        <v>0.01067708333333333</v>
       </c>
       <c r="O8" t="n">
-        <v>0</v>
+        <v>0.03854166666666667</v>
       </c>
       <c r="P8" t="n">
-        <v>0.07275390625</v>
+        <v>0.03854166666666667</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>0.03854166666666667</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>0.1677395833333333</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>0.1054921875</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>0.01094270833333333</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>0.01094270833333333</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>0.01094270833333333</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -1227,68 +1254,72 @@
         <v>0</v>
       </c>
       <c r="AE8" t="n">
-        <v>0</v>
+        <v>0.01015625</v>
       </c>
       <c r="AF8" t="n">
-        <v>0</v>
+        <v>0.09328125000000001</v>
+      </c>
+      <c r="AG8" t="n">
+        <v>0.1177734375</v>
+      </c>
+      <c r="AH8" t="n">
+        <v>0.1177734375</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="1" t="inlineStr">
-        <is>
-          <t>Mar</t>
-        </is>
+      <c r="A9" s="1" t="n">
+        <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>2024</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="D9" t="n">
-        <v>0.036376953125</v>
+        <v>0.04083333333333333</v>
       </c>
       <c r="E9" t="n">
-        <v>0.031494140625</v>
+        <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>0.046142578125</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.11865234375</v>
+        <v>0.009518229166666666</v>
       </c>
       <c r="H9" t="n">
-        <v>0.151611328125</v>
+        <v>0.04028645833333333</v>
       </c>
       <c r="I9" t="n">
-        <v>0.19189453125</v>
+        <v>0.04914062499999999</v>
       </c>
       <c r="J9" t="n">
-        <v>0.19189453125</v>
+        <v>0.20828125</v>
       </c>
       <c r="K9" t="n">
-        <v>0.136962890625</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>0.1865234375</v>
+        <v>0.07760416666666667</v>
       </c>
       <c r="M9" t="n">
-        <v>0.67138671875</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>0.67138671875</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>0.872802734375</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>1.13525390625</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>0.07958984375</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0.011962890625</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -1300,89 +1331,93 @@
         <v>0</v>
       </c>
       <c r="V9" t="n">
-        <v>0</v>
+        <v>0.01067708333333333</v>
       </c>
       <c r="W9" t="n">
-        <v>0</v>
+        <v>0.01354166666666667</v>
       </c>
       <c r="X9" t="n">
-        <v>0</v>
+        <v>0.01354166666666667</v>
       </c>
       <c r="Y9" t="n">
         <v>0</v>
       </c>
       <c r="Z9" t="n">
-        <v>0</v>
+        <v>0.01015625</v>
       </c>
       <c r="AA9" t="n">
-        <v>0</v>
+        <v>0.040625</v>
       </c>
       <c r="AB9" t="n">
-        <v>0</v>
+        <v>0.0842578125</v>
       </c>
       <c r="AC9" t="n">
-        <v>0</v>
+        <v>0.04216145833333333</v>
       </c>
       <c r="AD9" t="n">
-        <v>0</v>
+        <v>0.01354166666666667</v>
       </c>
       <c r="AE9" t="n">
-        <v>0.0126953125</v>
+        <v>0.01354166666666667</v>
       </c>
       <c r="AF9" t="n">
-        <v>0.010009765625</v>
+        <v>0</v>
+      </c>
+      <c r="AG9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH9" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="1" t="inlineStr">
-        <is>
-          <t>Apr</t>
-        </is>
+      <c r="A10" s="1" t="n">
+        <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>0.24169921875</v>
+        <v>2024</v>
       </c>
       <c r="C10" t="n">
-        <v>0.24169921875</v>
+        <v>10</v>
       </c>
       <c r="D10" t="n">
-        <v>0.34716796875</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>0.0510009765625</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>5.411486816406249</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>7.273251953125</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="H10" t="n">
-        <v>4.535</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="I10" t="n">
-        <v>3.85234375</v>
+        <v>0.2197916666666667</v>
       </c>
       <c r="J10" t="n">
-        <v>2.5365234375</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>0.2255859375</v>
+        <v>0</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
       </c>
       <c r="M10" t="n">
-        <v>0</v>
+        <v>0.04895833333333333</v>
       </c>
       <c r="N10" t="n">
-        <v>0</v>
+        <v>0.29921875</v>
       </c>
       <c r="O10" t="n">
-        <v>0</v>
+        <v>0.29921875</v>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>0.19765625</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -1397,13 +1432,13 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>0.02109375</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>0.02109375</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>0.01354166666666667</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -1412,38 +1447,42 @@
         <v>0</v>
       </c>
       <c r="Z10" t="n">
-        <v>0</v>
+        <v>0.3268229166666666</v>
       </c>
       <c r="AA10" t="n">
-        <v>0</v>
+        <v>0.4036458333333333</v>
       </c>
       <c r="AB10" t="n">
-        <v>0</v>
+        <v>0.53515625</v>
       </c>
       <c r="AC10" t="n">
-        <v>0</v>
+        <v>0.53515625</v>
       </c>
       <c r="AD10" t="n">
-        <v>0</v>
+        <v>0.390625</v>
       </c>
       <c r="AE10" t="n">
         <v>0</v>
       </c>
       <c r="AF10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH10" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="1" t="inlineStr">
-        <is>
-          <t>Jun</t>
-        </is>
+      <c r="A11" s="1" t="n">
+        <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>2024</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -1467,31 +1506,31 @@
         <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>0.0984375</v>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>0.0984375</v>
       </c>
       <c r="M11" t="n">
-        <v>0.010498046875</v>
+        <v>0.01015625</v>
       </c>
       <c r="N11" t="n">
-        <v>0</v>
+        <v>0.009635416666666667</v>
       </c>
       <c r="O11" t="n">
-        <v>0</v>
+        <v>0.009635416666666667</v>
       </c>
       <c r="P11" t="n">
-        <v>0</v>
+        <v>0.009635416666666667</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>0.4518229166666666</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>0.4041666666666667</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>0.0984375</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
@@ -1532,104 +1571,10 @@
       <c r="AF11" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="1" t="inlineStr">
-        <is>
-          <t>Jul</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>0</v>
-      </c>
-      <c r="C12" t="n">
-        <v>0</v>
-      </c>
-      <c r="D12" t="n">
-        <v>0</v>
-      </c>
-      <c r="E12" t="n">
-        <v>0</v>
-      </c>
-      <c r="F12" t="n">
-        <v>0</v>
-      </c>
-      <c r="G12" t="n">
-        <v>0</v>
-      </c>
-      <c r="H12" t="n">
-        <v>0</v>
-      </c>
-      <c r="I12" t="n">
-        <v>0</v>
-      </c>
-      <c r="J12" t="n">
-        <v>0</v>
-      </c>
-      <c r="K12" t="n">
-        <v>0</v>
-      </c>
-      <c r="L12" t="n">
-        <v>0</v>
-      </c>
-      <c r="M12" t="n">
-        <v>0</v>
-      </c>
-      <c r="N12" t="n">
-        <v>0</v>
-      </c>
-      <c r="O12" t="n">
-        <v>0</v>
-      </c>
-      <c r="P12" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q12" t="n">
-        <v>0</v>
-      </c>
-      <c r="R12" t="n">
-        <v>0</v>
-      </c>
-      <c r="S12" t="n">
-        <v>0</v>
-      </c>
-      <c r="T12" t="n">
-        <v>0</v>
-      </c>
-      <c r="U12" t="n">
-        <v>0</v>
-      </c>
-      <c r="V12" t="n">
-        <v>0</v>
-      </c>
-      <c r="W12" t="n">
-        <v>0</v>
-      </c>
-      <c r="X12" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y12" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z12" t="n">
-        <v>0.08740234375</v>
-      </c>
-      <c r="AA12" t="n">
-        <v>0.10693359375</v>
-      </c>
-      <c r="AB12" t="n">
-        <v>0.10693359375</v>
-      </c>
-      <c r="AC12" t="n">
-        <v>0.08740234375</v>
-      </c>
-      <c r="AD12" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE12" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF12" t="n">
+      <c r="AG11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH11" t="n">
         <v>0</v>
       </c>
     </row>

--- a/Output/future_revpab.xlsx
+++ b/Output/future_revpab.xlsx
@@ -609,19 +609,19 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>6.110625</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>12.65658333333333</v>
+        <v>13.40353125</v>
       </c>
       <c r="Z2" t="n">
-        <v>10.21014583333333</v>
+        <v>11.6585</v>
       </c>
       <c r="AA2" t="n">
-        <v>18.96571614583333</v>
+        <v>20.97370052083333</v>
       </c>
       <c r="AB2" t="n">
-        <v>15.744765625</v>
+        <v>19.79076822916667</v>
       </c>
       <c r="AC2" t="n">
         <v>6.068815104166666</v>
@@ -653,13 +653,13 @@
         <v>3</v>
       </c>
       <c r="D3" t="n">
-        <v>26.07199739583333</v>
+        <v>30.32099739583333</v>
       </c>
       <c r="E3" t="n">
-        <v>31.61533333333333</v>
+        <v>36.28490625</v>
       </c>
       <c r="F3" t="n">
-        <v>10.83926302083334</v>
+        <v>11.48641666666667</v>
       </c>
       <c r="G3" t="n">
         <v>6.994750000000001</v>
@@ -683,22 +683,22 @@
         <v>54.9984375</v>
       </c>
       <c r="N3" t="n">
-        <v>41.99270833333333</v>
+        <v>43.54557291666666</v>
       </c>
       <c r="O3" t="n">
+        <v>42.72395833333334</v>
+      </c>
+      <c r="P3" t="n">
         <v>41.18515625</v>
       </c>
-      <c r="P3" t="n">
-        <v>39.67447916666667</v>
-      </c>
       <c r="Q3" t="n">
-        <v>53.12161458333333</v>
+        <v>55.234375</v>
       </c>
       <c r="R3" t="n">
-        <v>57.21250000000001</v>
+        <v>59.54557291666666</v>
       </c>
       <c r="S3" t="n">
-        <v>26.575</v>
+        <v>28.1703125</v>
       </c>
       <c r="T3" t="n">
         <v>3.510677083333333</v>
@@ -716,34 +716,34 @@
         <v>4.017083333333334</v>
       </c>
       <c r="Y3" t="n">
-        <v>6.179986979166666</v>
+        <v>6.787265625</v>
       </c>
       <c r="Z3" t="n">
-        <v>2.180182291666667</v>
+        <v>2.547158854166667</v>
       </c>
       <c r="AA3" t="n">
-        <v>1.86678125</v>
+        <v>2.1611484375</v>
       </c>
       <c r="AB3" t="n">
-        <v>3.872312499999999</v>
+        <v>4.280145833333332</v>
       </c>
       <c r="AC3" t="n">
         <v>1.47525</v>
       </c>
       <c r="AD3" t="n">
-        <v>2.2795</v>
+        <v>2.594625</v>
       </c>
       <c r="AE3" t="n">
-        <v>3.671114583333333</v>
+        <v>4.07925</v>
       </c>
       <c r="AF3" t="n">
-        <v>6.39975</v>
+        <v>7.632166666666667</v>
       </c>
       <c r="AG3" t="n">
-        <v>8.070901041666668</v>
+        <v>10.18028385416667</v>
       </c>
       <c r="AH3" t="n">
-        <v>1.609125</v>
+        <v>2.198145833333333</v>
       </c>
     </row>
     <row r="4">
@@ -757,19 +757,19 @@
         <v>4</v>
       </c>
       <c r="D4" t="n">
-        <v>7.700260416666667</v>
+        <v>8.292645833333333</v>
       </c>
       <c r="E4" t="n">
         <v>12.99694010416667</v>
       </c>
       <c r="F4" t="n">
-        <v>20.55484375</v>
+        <v>21.4059375</v>
       </c>
       <c r="G4" t="n">
         <v>31.026953125</v>
       </c>
       <c r="H4" t="n">
-        <v>40.00934895833333</v>
+        <v>41.96613281250001</v>
       </c>
       <c r="I4" t="n">
         <v>47.0369296875</v>
@@ -817,10 +817,10 @@
         <v>0.6274114583333333</v>
       </c>
       <c r="X4" t="n">
-        <v>0.5425546875</v>
+        <v>0.6979791666666666</v>
       </c>
       <c r="Y4" t="n">
-        <v>0.39409375</v>
+        <v>0.5233046875</v>
       </c>
       <c r="Z4" t="n">
         <v>0.6206484375000001</v>
@@ -909,13 +909,13 @@
         <v>0.2920833333333333</v>
       </c>
       <c r="T5" t="n">
-        <v>1.276791666666667</v>
+        <v>0.5001302083333332</v>
       </c>
       <c r="U5" t="n">
-        <v>1.565296875</v>
+        <v>0.6860937499999999</v>
       </c>
       <c r="V5" t="n">
-        <v>0.552359375</v>
+        <v>0.09746093750000001</v>
       </c>
       <c r="W5" t="n">
         <v>0.01015625</v>
